--- a/example/xlsx/shard/int/2.xlsx
+++ b/example/xlsx/shard/int/2.xlsx
@@ -10,7 +10,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7miWgz8RKAUluIPtkPR0wkKUrfNOSw=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mjzs25uE8UG1Rbqv53Qud53XjmGBQ=="/>
     </ext>
   </extLst>
 </workbook>
@@ -43,7 +43,7 @@
     <t>float</t>
   </si>
   <si>
-    <t>datetime</t>
+    <t>time</t>
   </si>
   <si>
     <t>id</t>
@@ -136,7 +136,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -144,9 +144,12 @@
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right"/>
@@ -155,22 +158,10 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -428,7 +419,7 @@
       <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -450,53 +441,53 @@
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="6">
         <v>1.0</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="7">
         <v>1.5</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="8">
         <v>43831.0</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="6">
         <v>2.0</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="7">
         <v>2.5</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="6">
         <v>3.0</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="7">
         <v>3.5</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="8">
         <v>43831.77096064815</v>
       </c>
     </row>
@@ -524,27 +515,27 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="9" t="s">
         <v>7</v>
       </c>
     </row>
